--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/12_Balıkesir_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/12_Balıkesir_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5882F20F-7A8A-46D5-860B-87C73CE3FC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB2AD05-4014-4716-8533-3A0E68CE68E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{0908E5DC-B859-44D4-A225-F5F43BE92BA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{A3EA1DEB-D0E2-4D9E-A324-ED6CFC2632BF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="137" r:id="rId1"/>
@@ -943,13 +943,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3A2969B8-0E62-4685-8E23-04E09E976A24}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7A49C804-06DB-4613-9550-1E07E40EF7B9}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{D5DF025F-F19D-4F3A-B0A4-C57FFDC20A7C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{E3E2B495-CBBD-4D00-BFE7-0A17C6C24835}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{955E8785-BA10-4DD2-9EA6-0AC76D661933}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{FC04C865-5D43-4483-90FD-FE74A9BCB03F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{E946F1AE-92CF-4D3E-AC80-CF3BB08ABD4F}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B239068B-BF66-4CAD-BE7B-928CF63712F6}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7C5B6B80-D4C9-42A3-BF0F-752023D8278E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{BDFE1C73-D303-41B8-AB4F-D5D3E456C13F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{EEA0A7B5-B4D4-478A-B38A-09EF7931FBE1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{1F584CCB-BC29-41FE-872E-87EC14366C26}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{060E4E77-149B-494F-B47E-DB42235B0890}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{C4CF12BD-ABA0-4EFD-A7FE-6CA12E7B480B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1319,7 +1319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A35E450-8B16-43CA-8DDB-8A2C7EB1D521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0987D526-2F01-45DF-9707-08256E8ABE29}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2626,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC5E7F7-6E1B-4110-BC6C-7C56620FAB94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C43552-1BAA-4465-8F09-5C98C132745E}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3932,7 +3932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81635625-46A1-4606-AF5C-03ACA6CFDAD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE516BD2-9408-4D2B-8377-3F60C78E8F38}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5238,7 +5238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F220E9-B1D5-42D8-9A58-70F653DC40AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D694A92A-8471-49F2-AA12-DFA31E83AE6F}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6544,7 +6544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DF92D3-8812-45DF-9524-BF822BB8CE1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9144DA-6042-4A45-BC1A-FE682657B91F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7853,7 +7853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3839D140-956D-4DDC-94F4-2D8F63981B06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67F962E-35AA-4BEF-9AB3-20E7C22E5B9B}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9161,7 +9161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D14C354-3832-4CF2-92B4-5DF7F1DF02A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ADB5CA-5446-44DA-A5B3-413416303BCE}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10471,7 +10471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D91252E-839F-4EC0-BBB2-61A6C1176CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEEF297-3391-4673-B390-8893F587338B}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11779,7 +11779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A19A59-5C41-48C2-8E3C-2B9AABAAFFA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29701C9-CE29-4814-A369-5E582177E682}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13087,7 +13087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076758EC-58E4-4DAD-873F-5DD4387574A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318230F6-7523-4612-A2CB-A849839C7318}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14395,7 +14395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC8C509-1D29-49A5-8B62-593E0409403E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1878E83-D1CB-4404-AFD8-0234879B01D0}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15705,7 +15705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2839694-1E45-47C4-A61A-56A61FF0AB17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0421F68-AB0C-489B-AB8B-8597874B9BF2}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
